--- a/biology/Biologie cellulaire et moléculaire/Martine_Simonelig/Martine_Simonelig.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Martine_Simonelig/Martine_Simonelig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martine Simonelig est une chercheuse en génétique française, directrice de l'équipe Régulation des ARNm et développement à l'Institut de génétique humaine[1].  Médaille d’argent du CNRS 2018, ses recherches se situent à l'interface de la biologie du développement et de la biologie de l'ARN[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martine Simonelig est une chercheuse en génétique française, directrice de l'équipe Régulation des ARNm et développement à l'Institut de génétique humaine.  Médaille d’argent du CNRS 2018, ses recherches se situent à l'interface de la biologie du développement et de la biologie de l'ARN.
 </t>
         </is>
       </c>
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parcours
-Après un doctorat en génétique moléculaire à l'Université Paris-Sud au sein du Laboratoire dynamique du génome et évolution de l'Institut Jacques Monod[2], elle réalise une année post-doctorale à l'Imperial College London au Royaume-Uni. Elle devient ensuite chargée de recherche à l'Institut Jacques Monod. 
-De 2014 à 2017 elle est la directrice du département Génétique et développement à l'Institut de génétique humaine puis en 2018 est nommée Directrice de recherche de classe exceptionnelle au CNRS[1].
-Travaux
-Passionnée pour la génétique très tôt au cours de ses études, Martine Simonelig s'est intéressée pendant sa thèse aux éléments transposables, des séquences d'ADN encore peu connues à cette époque, qui ont la capacité de changer de place dans le génome[3],[4].
-Ses intérêts ont ensuite divergé vers les régulations d'Acide ribonucléique messager (ARNm) et des aspects plus développementaux[5],[6],[7]. 
-En 2010, elle participe à une découverte majeure : de petits ARN non codant provenant d'éléments transposables (transposons) sont capables de réguler des ARNm pour assurer le développement embryonnaire précoce[8],[9]. 
-À partir de 2015, elle centre ses recherches sur la voie des Piwi-interacting RNAs (piRNAs) et leur rôle dans certaines maladies dégéneratives telles que la dystrophie musculaire oculopharyngée (OPMD)[10],[11]. 
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après un doctorat en génétique moléculaire à l'Université Paris-Sud au sein du Laboratoire dynamique du génome et évolution de l'Institut Jacques Monod, elle réalise une année post-doctorale à l'Imperial College London au Royaume-Uni. Elle devient ensuite chargée de recherche à l'Institut Jacques Monod. 
+De 2014 à 2017 elle est la directrice du département Génétique et développement à l'Institut de génétique humaine puis en 2018 est nommée Directrice de recherche de classe exceptionnelle au CNRS.
 </t>
         </is>
       </c>
@@ -546,10 +558,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passionnée pour la génétique très tôt au cours de ses études, Martine Simonelig s'est intéressée pendant sa thèse aux éléments transposables, des séquences d'ADN encore peu connues à cette époque, qui ont la capacité de changer de place dans le génome,.
+Ses intérêts ont ensuite divergé vers les régulations d'Acide ribonucléique messager (ARNm) et des aspects plus développementaux. 
+En 2010, elle participe à une découverte majeure : de petits ARN non codant provenant d'éléments transposables (transposons) sont capables de réguler des ARNm pour assurer le développement embryonnaire précoce,. 
+À partir de 2015, elle centre ses recherches sur la voie des Piwi-interacting RNAs (piRNAs) et leur rôle dans certaines maladies dégéneratives telles que la dystrophie musculaire oculopharyngée (OPMD),. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Martine_Simonelig</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_Simonelig</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2018 : Médaille d'argent du CNRS</t>
         </is>
